--- a/students.xlsx
+++ b/students.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>学号</t>
   </si>
@@ -57,6 +57,21 @@
   </si>
   <si>
     <t>22341</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
 </sst>
 </file>
@@ -101,7 +116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -185,6 +200,32 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/students.xlsx
+++ b/students.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>学号</t>
   </si>
@@ -38,6 +38,24 @@
     <t>院系</t>
   </si>
   <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>223</t>
   </si>
   <si>
@@ -50,28 +68,40 @@
     <t>41</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>413</t>
   </si>
   <si>
+    <t>2344</t>
+  </si>
+  <si>
+    <t>12434</t>
+  </si>
+  <si>
+    <t>4123423</t>
+  </si>
+  <si>
+    <t>41234</t>
+  </si>
+  <si>
+    <t>142324</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
     <t>22341</t>
   </si>
   <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>34</t>
+    <t>4132</t>
+  </si>
+  <si>
+    <t>4312人权</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>4123</t>
   </si>
 </sst>
 </file>
@@ -116,7 +146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -156,16 +186,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>134.0</v>
+        <v>22.0</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -179,51 +209,103 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
         <v>134.0</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14132.0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4123.0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
